--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43830,6 +43830,41 @@
         <v>551000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>799500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43865,6 +43865,41 @@
         <v>799500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>874000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43900,6 +43900,41 @@
         <v>874000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>340600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43935,6 +43935,41 @@
         <v>340600</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>270000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43970,6 +43970,41 @@
         <v>270000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>767500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44005,6 +44005,41 @@
         <v>767500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>250000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44040,6 +44040,41 @@
         <v>250000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>404600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44075,6 +44075,41 @@
         <v>404600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>805000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44110,6 +44110,41 @@
         <v>805000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>333000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,6 +44145,41 @@
         <v>333000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>520700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44180,6 +44180,41 @@
         <v>520700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>764500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44215,6 +44215,41 @@
         <v>764500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>413000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44250,6 +44250,76 @@
         <v>413000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>855500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44320,6 +44320,76 @@
         <v>855500</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>443100</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>290000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44390,6 +44390,41 @@
         <v>290000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1126800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44425,6 +44425,41 @@
         <v>1126800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>461000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44460,6 +44460,41 @@
         <v>461000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>280000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44495,6 +44495,41 @@
         <v>280000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1258000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44530,6 +44530,76 @@
         <v>1258000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>681000</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>320000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44600,6 +44600,41 @@
         <v>320000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>780000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44635,6 +44635,41 @@
         <v>780000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1087000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1965"/>
+  <dimension ref="A1:I1966"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70045,6 +70045,41 @@
         <v>1087000</v>
       </c>
     </row>
+    <row r="1966">
+      <c r="A1966" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1966" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1966" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1966" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1966" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1966" t="n">
+        <v>430000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1966"/>
+  <dimension ref="A1:I1967"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70080,6 +70080,41 @@
         <v>430000</v>
       </c>
     </row>
+    <row r="1967">
+      <c r="A1967" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1967" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1967" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1967" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1967" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1967" t="n">
+        <v>1117200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1967"/>
+  <dimension ref="A1:I1968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70115,6 +70115,41 @@
         <v>1117200</v>
       </c>
     </row>
+    <row r="1968">
+      <c r="A1968" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1968" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1968" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1968" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1968" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1968" t="n">
+        <v>937200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1968"/>
+  <dimension ref="A1:I1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70150,6 +70150,41 @@
         <v>937200</v>
       </c>
     </row>
+    <row r="1969">
+      <c r="A1969" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1969" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1969" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1969" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1969" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1969" t="n">
+        <v>1289400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1969"/>
+  <dimension ref="A1:I1970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70185,6 +70185,41 @@
         <v>1289400</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1970" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1970" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1970" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1970" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1970" t="n">
+        <v>914100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1970"/>
+  <dimension ref="A1:I1971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70220,6 +70220,41 @@
         <v>914100</v>
       </c>
     </row>
+    <row r="1971">
+      <c r="A1971" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1971" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1971" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1971" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1971" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1971" t="n">
+        <v>691500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70255,6 +70255,41 @@
         <v>691500</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>498600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70290,6 +70290,41 @@
         <v>498600</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>297100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1973"/>
+  <dimension ref="A1:I1974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70325,6 +70325,41 @@
         <v>297100</v>
       </c>
     </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>286800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1974"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70360,6 +70360,41 @@
         <v>286800</v>
       </c>
     </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1975"/>
+  <dimension ref="A1:I1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70395,6 +70395,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>71800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1976"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70430,6 +70430,41 @@
         <v>71800</v>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1977"/>
+  <dimension ref="A1:I1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70465,6 +70465,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>66000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1978"/>
+  <dimension ref="A1:I1979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70500,6 +70500,41 @@
         <v>66000</v>
       </c>
     </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>168000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7121.xlsx
+++ b/data/7121.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1979"/>
+  <dimension ref="A1:I1980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70535,6 +70535,41 @@
         <v>168000</v>
       </c>
     </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>7121</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>XIANLNG</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
